--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -371,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>0.158</v>
+        <v>0.185</v>
       </c>
       <c r="N2" t="n">
         <v>0.133</v>
@@ -588,10 +588,20 @@
         <v>4000</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -627,6 +637,14 @@
       <c r="H6" t="n">
         <v>0.05</v>
       </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>equity</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -663,32 +681,10 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>equity</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="J9" s="1" t="inlineStr">
-        <is>
           <t>fixed-income</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K7" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>equity1</t>
+          <t>Equity1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fixed-income1</t>
+          <t>Fixed1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fixed-income</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>equity2</t>
+          <t>Equity2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fixed-income2</t>
+          <t>Fixed2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fixed-income</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>equity3</t>
+          <t>Equity3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fixed-income3</t>
+          <t>Fixed3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fixed-income</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>fixed-income</t>
+          <t>Fixed</t>
         </is>
       </c>
       <c r="K7" t="n">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\PycharmProjects\investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746B43A-22C9-4ABB-B9A8-53695314FAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA957D47-1078-4511-85EC-E7968B31A54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,6 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,18 +163,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,13 +478,12 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="22.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -664,7 +667,7 @@
       <c r="K7" s="2">
         <v>0.92307692307692313</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>13000</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,137 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\PycharmProjects\investing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA957D47-1078-4511-85EC-E7968B31A54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="assets" sheetId="1" r:id="rId1"/>
-    <sheet name="liabilities" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="assets" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="liabilities" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Potential Return</t>
-  </si>
-  <si>
-    <t>Portfolio Risk</t>
-  </si>
-  <si>
-    <t>Equity1</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>Fixed1</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>Equity2</t>
-  </si>
-  <si>
-    <t>Equity3</t>
-  </si>
-  <si>
-    <t>Total Value</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>Contract Length</t>
-  </si>
-  <si>
-    <t>liability1</t>
-  </si>
-  <si>
-    <t>liability</t>
-  </si>
-  <si>
-    <t>liability2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="$ 0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -161,32 +68,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -474,209 +370,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="13" max="13" width="14.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Potential Return</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Portfolio Risk</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Equity1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>DM</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fixed1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Equity2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DM</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>7000</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>0.3</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>2000</v>
-      </c>
-      <c r="G4">
-        <v>0.08</v>
-      </c>
-      <c r="H4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Equity3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>3000</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.06</v>
       </c>
-      <c r="H5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="H5" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Total Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="H7" t="n">
+        <v>883065.08</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2">
-        <v>7.6923076923076927E-2</v>
+    <row r="8">
+      <c r="H8" s="3" t="n"/>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0.07692307692307693</v>
       </c>
     </row>
   </sheetData>
@@ -685,67 +656,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Interest Rate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contract Length</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>liability1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>liability</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>1500</v>
-      </c>
-      <c r="E2">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>liability2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>liability</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03</v>
       </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>6500</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>30</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -624,8 +624,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="H7" t="n">
-        <v>883065.08</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Years Until Retirement</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Expected Value</t>
+        </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -633,14 +640,19 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>43</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>13000</v>
       </c>
     </row>
     <row r="8">
-      <c r="H8" s="3" t="n"/>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>800547.14</v>
+      </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
           <t>Fixed</t>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,44 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\PycharmProjects\investing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E66BE-17E8-4439-A1AA-C443D0BA178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="assets" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="liabilities" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="assets" sheetId="1" r:id="rId1"/>
+    <sheet name="liabilities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Potential Return</t>
+  </si>
+  <si>
+    <t>Portfolio Risk</t>
+  </si>
+  <si>
+    <t>Equity1</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Fixed1</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Equity2</t>
+  </si>
+  <si>
+    <t>Equity3</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Years Until Retirement</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Contract Length</t>
+  </si>
+  <si>
+    <t>liability1</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>liability2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$ 0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,21 +178,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -370,296 +491,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Risk</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Potential Return</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Portfolio Risk</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Equity1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>7000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
         <v>0.1</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>DM</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fixed1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Equity2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DM</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>2000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.08</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="H4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Equity3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>30000</v>
+      </c>
+      <c r="G5">
         <v>0.06</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Total Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Years Until Retirement</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Expected Value</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="n">
-        <v>42</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>800547.14</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0.07692307692307693</v>
+      <c r="H5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M7" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9943218.75</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -668,91 +716,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Interest Rate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Contract Length</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>liability1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>liability</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
         <v>1500</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.03</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>liability2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>liability</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>6500</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.03</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>30</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\PycharmProjects\investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E66BE-17E8-4439-A1AA-C443D0BA178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9629E0-AE47-4916-8C67-1807CE5EFBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,23 +16,12 @@
     <sheet name="assets" sheetId="1" r:id="rId1"/>
     <sheet name="liabilities" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -91,7 +80,16 @@
     <t>Equity3</t>
   </si>
   <si>
+    <t>Fixed2</t>
+  </si>
+  <si>
     <t>Total Value</t>
+  </si>
+  <si>
+    <t>Equity4</t>
+  </si>
+  <si>
+    <t>Equity5</t>
   </si>
   <si>
     <t>Years Until Retirement</t>
@@ -119,8 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\$\ 0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,13 +181,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -492,17 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -568,14 +574,14 @@
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
-        <v>0.05</v>
+      <c r="K2" s="5">
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="M2" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N2" s="2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -606,8 +612,8 @@
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2">
-        <v>2.5000000000000001E-2</v>
+      <c r="K3" s="5">
+        <v>8.9743589743589744E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -638,8 +644,8 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2">
-        <v>0.92500000000000004</v>
+      <c r="K4" s="5">
+        <v>0.85897435897435892</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -669,6 +675,30 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>6000</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+      <c r="H6">
+        <v>0.03</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,38 +706,90 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>0.08</v>
+      </c>
+      <c r="H7">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="M7" s="3">
-        <v>40000</v>
+      <c r="K7" s="5">
+        <v>0.91025641025641024</v>
+      </c>
+      <c r="M7" s="6">
+        <v>78000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>30000</v>
+      </c>
       <c r="G8">
-        <v>41</v>
+        <v>0.06</v>
       </c>
       <c r="H8" s="3">
-        <v>9943218.75</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="2">
-        <v>2.5000000000000001E-2</v>
+      <c r="K8" s="5">
+        <v>8.9743589743589744E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>42</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4756611.6500000004</v>
       </c>
     </row>
   </sheetData>
@@ -734,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -745,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>1500</v>
@@ -765,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>6500</v>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\PycharmProjects\investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9629E0-AE47-4916-8C67-1807CE5EFBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A32E75-48A5-4572-AF3E-53D19E712A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -192,8 +192,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,14 +505,15 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -539,10 +544,10 @@
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -705,7 +710,7 @@
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -740,7 +745,7 @@
       <c r="K7" s="5">
         <v>0.91025641025641024</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <v>78000</v>
       </c>
     </row>
@@ -777,15 +782,15 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J11">
+      <c r="J11" s="7">
         <v>42</v>
       </c>
       <c r="K11" s="4">
@@ -794,6 +799,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0.08</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.8589743589743589</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -694,52 +694,21 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>78000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Equity5</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0.08500000000000001</v>
-      </c>
+      <c r="H8" s="3" t="n"/>
       <c r="J8" s="1" t="inlineStr">
         <is>
           <t>Fixed</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -759,18 +728,24 @@
         <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>740808.27</v>
+        <v>791337.2</v>
       </c>
     </row>
     <row r="15">
-      <c r="K15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>2</v>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>Overweight</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>Risk Type</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -779,31 +754,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.8589743589743589</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>0.9102564102564102</v>
-      </c>
-      <c r="M17" t="inlineStr">
         <is>
           <t>asset</t>
         </is>
